--- a/public/assets/uploads/excel/students.xlsx
+++ b/public/assets/uploads/excel/students.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>MSSV</t>
   </si>
@@ -39,37 +39,46 @@
     <t>Khoa</t>
   </si>
   <si>
-    <t>GPA</t>
-  </si>
-  <si>
-    <t>Tin chỉ</t>
-  </si>
-  <si>
     <t>Mã lớp</t>
   </si>
   <si>
     <t>Nguyễn Văn A</t>
   </si>
   <si>
-    <t>19021331@vnu.edu.vn</t>
-  </si>
-  <si>
     <t>CNTT</t>
   </si>
   <si>
-    <t>K64-CC</t>
-  </si>
-  <si>
     <t>Nguyễn Văn B</t>
   </si>
   <si>
     <t>Nguyễn Văn C</t>
   </si>
   <si>
-    <t>19021332@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>19021333@vnu.edu.vn</t>
+    <t>19121331@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>19121332@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>19121333@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>SĐT phụ huynh</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Hà Đông</t>
+  </si>
+  <si>
+    <t>Cầu Giấy</t>
+  </si>
+  <si>
+    <t>Đông Anh</t>
+  </si>
+  <si>
+    <t>QH-2019-ICQ-D-A-CLC1</t>
   </si>
 </sst>
 </file>
@@ -402,7 +411,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,6 +420,7 @@
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="13.109375" customWidth="1"/>
     <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -436,21 +446,21 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>19021331</v>
+        <v>19121331</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2">
         <v>37176</v>
@@ -459,27 +469,27 @@
         <v>123456789</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>9.6</v>
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>123456778</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>19021332</v>
+        <v>19121332</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>37176</v>
@@ -488,27 +498,27 @@
         <v>123456789</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>9.6</v>
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>12345622</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>19021333</v>
+        <v>19121333</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>37176</v>
@@ -517,16 +527,16 @@
         <v>123456789</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>9.6</v>
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>134251677</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
